--- a/data/final_data.xlsx
+++ b/data/final_data.xlsx
@@ -1615,7 +1615,7 @@
     <t>E115</t>
   </si>
   <si>
-    <t>E118</t>
+    <t>E117</t>
   </si>
   <si>
     <t>E119</t>
@@ -3722,7 +3722,7 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L3">
         <v>2</v>
@@ -3821,7 +3821,7 @@
         <v>3</v>
       </c>
       <c r="AR3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AS3">
         <v>11</v>
@@ -3842,7 +3842,7 @@
         <v>15</v>
       </c>
       <c r="AY3">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:51">
@@ -3910,7 +3910,7 @@
         <v>2</v>
       </c>
       <c r="V4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W4">
         <v>3</v>
@@ -4065,7 +4065,7 @@
         <v>2</v>
       </c>
       <c r="V5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W5">
         <v>3</v>
@@ -4530,7 +4530,7 @@
         <v>1</v>
       </c>
       <c r="V8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W8">
         <v>3</v>
@@ -4685,7 +4685,7 @@
         <v>1</v>
       </c>
       <c r="V9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W9">
         <v>3</v>
@@ -4840,7 +4840,7 @@
         <v>1</v>
       </c>
       <c r="V10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W10">
         <v>3</v>
@@ -4995,7 +4995,7 @@
         <v>1</v>
       </c>
       <c r="V11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W11">
         <v>3</v>
@@ -5150,7 +5150,7 @@
         <v>1</v>
       </c>
       <c r="V12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W12">
         <v>3</v>
@@ -5615,7 +5615,7 @@
         <v>1</v>
       </c>
       <c r="V15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W15">
         <v>2</v>
@@ -5770,7 +5770,7 @@
         <v>2</v>
       </c>
       <c r="V16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W16">
         <v>2</v>
@@ -5919,13 +5919,13 @@
         <v>3</v>
       </c>
       <c r="T17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U17">
         <v>1</v>
       </c>
       <c r="V17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W17">
         <v>3</v>
@@ -5997,7 +5997,7 @@
         <v>12</v>
       </c>
       <c r="AT17">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AU17">
         <v>15</v>
@@ -6012,7 +6012,7 @@
         <v>15</v>
       </c>
       <c r="AY17">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:51">
@@ -6074,13 +6074,13 @@
         <v>3</v>
       </c>
       <c r="T18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U18">
         <v>1</v>
       </c>
       <c r="V18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W18">
         <v>3</v>
@@ -6152,7 +6152,7 @@
         <v>12</v>
       </c>
       <c r="AT18">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AU18">
         <v>15</v>
@@ -6167,7 +6167,7 @@
         <v>13</v>
       </c>
       <c r="AY18">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:51">
@@ -6390,7 +6390,7 @@
         <v>3</v>
       </c>
       <c r="V20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W20">
         <v>3</v>
@@ -6524,7 +6524,7 @@
         <v>1</v>
       </c>
       <c r="O21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P21">
         <v>3</v>
@@ -6545,13 +6545,13 @@
         <v>3</v>
       </c>
       <c r="V21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W21">
         <v>3</v>
       </c>
       <c r="X21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y21">
         <v>1</v>
@@ -6614,13 +6614,13 @@
         <v>11</v>
       </c>
       <c r="AS21">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT21">
         <v>13</v>
       </c>
       <c r="AU21">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV21">
         <v>12</v>
@@ -6700,7 +6700,7 @@
         <v>1</v>
       </c>
       <c r="V22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W22">
         <v>3</v>
@@ -6855,7 +6855,7 @@
         <v>1</v>
       </c>
       <c r="V23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W23">
         <v>2</v>
@@ -7165,7 +7165,7 @@
         <v>1</v>
       </c>
       <c r="V25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W25">
         <v>1</v>
@@ -7320,7 +7320,7 @@
         <v>3</v>
       </c>
       <c r="V26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W26">
         <v>3</v>
@@ -7475,7 +7475,7 @@
         <v>1</v>
       </c>
       <c r="V27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W27">
         <v>2</v>
@@ -7630,7 +7630,7 @@
         <v>2</v>
       </c>
       <c r="V28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W28">
         <v>3</v>
@@ -7785,7 +7785,7 @@
         <v>2</v>
       </c>
       <c r="V29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W29">
         <v>2</v>
@@ -7919,16 +7919,16 @@
         <v>3</v>
       </c>
       <c r="O30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q30">
         <v>3</v>
       </c>
       <c r="R30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S30">
         <v>1</v>
@@ -7940,7 +7940,7 @@
         <v>1</v>
       </c>
       <c r="V30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W30">
         <v>2</v>
@@ -7949,7 +7949,7 @@
         <v>2</v>
       </c>
       <c r="Y30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z30">
         <v>1</v>
@@ -7964,7 +7964,7 @@
         <v>1</v>
       </c>
       <c r="AD30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE30">
         <v>3</v>
@@ -8009,16 +8009,16 @@
         <v>7</v>
       </c>
       <c r="AS30">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AT30">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AU30">
+        <v>12</v>
+      </c>
+      <c r="AV30">
         <v>11</v>
-      </c>
-      <c r="AV30">
-        <v>12</v>
       </c>
       <c r="AW30">
         <v>12</v>
@@ -8027,7 +8027,7 @@
         <v>11</v>
       </c>
       <c r="AY30">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:51">
@@ -8095,7 +8095,7 @@
         <v>1</v>
       </c>
       <c r="V31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W31">
         <v>3</v>
@@ -8250,7 +8250,7 @@
         <v>3</v>
       </c>
       <c r="V32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W32">
         <v>3</v>
@@ -8870,7 +8870,7 @@
         <v>3</v>
       </c>
       <c r="V36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W36">
         <v>2</v>
@@ -9025,7 +9025,7 @@
         <v>3</v>
       </c>
       <c r="V37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W37">
         <v>2</v>
@@ -9064,7 +9064,7 @@
         <v>2</v>
       </c>
       <c r="AI37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ37">
         <v>3</v>
@@ -9106,13 +9106,13 @@
         <v>13</v>
       </c>
       <c r="AW37">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AX37">
         <v>15</v>
       </c>
       <c r="AY37">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:51">
@@ -9180,7 +9180,7 @@
         <v>3</v>
       </c>
       <c r="V38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W38">
         <v>2</v>
@@ -9645,7 +9645,7 @@
         <v>3</v>
       </c>
       <c r="V41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W41">
         <v>3</v>
@@ -9955,7 +9955,7 @@
         <v>1</v>
       </c>
       <c r="V43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W43">
         <v>3</v>
@@ -10110,7 +10110,7 @@
         <v>3</v>
       </c>
       <c r="V44">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W44">
         <v>3</v>
@@ -10265,7 +10265,7 @@
         <v>2</v>
       </c>
       <c r="V45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W45">
         <v>2</v>
@@ -10420,7 +10420,7 @@
         <v>2</v>
       </c>
       <c r="V46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W46">
         <v>2</v>
@@ -10858,7 +10858,7 @@
         <v>2</v>
       </c>
       <c r="M49">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N49">
         <v>3</v>
@@ -10885,7 +10885,7 @@
         <v>3</v>
       </c>
       <c r="V49">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W49">
         <v>3</v>
@@ -10951,7 +10951,7 @@
         <v>3</v>
       </c>
       <c r="AR49">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AS49">
         <v>12</v>
@@ -10972,7 +10972,7 @@
         <v>15</v>
       </c>
       <c r="AY49">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="50" spans="1:51">
@@ -11195,7 +11195,7 @@
         <v>3</v>
       </c>
       <c r="V51">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W51">
         <v>1</v>
@@ -11505,7 +11505,7 @@
         <v>3</v>
       </c>
       <c r="V53">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W53">
         <v>2</v>
@@ -11949,7 +11949,7 @@
         <v>2</v>
       </c>
       <c r="O56">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P56">
         <v>2</v>
@@ -11970,7 +11970,7 @@
         <v>3</v>
       </c>
       <c r="V56">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W56">
         <v>3</v>
@@ -12039,7 +12039,7 @@
         <v>10</v>
       </c>
       <c r="AS56">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AT56">
         <v>12</v>
@@ -12057,7 +12057,7 @@
         <v>13</v>
       </c>
       <c r="AY56">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="57" spans="1:51">
@@ -12280,7 +12280,7 @@
         <v>2</v>
       </c>
       <c r="V58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W58">
         <v>3</v>
@@ -12435,7 +12435,7 @@
         <v>3</v>
       </c>
       <c r="V59">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W59">
         <v>2</v>
@@ -12590,7 +12590,7 @@
         <v>2</v>
       </c>
       <c r="V60">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W60">
         <v>3</v>
@@ -12745,7 +12745,7 @@
         <v>2</v>
       </c>
       <c r="V61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W61">
         <v>2</v>
@@ -12900,7 +12900,7 @@
         <v>2</v>
       </c>
       <c r="V62">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W62">
         <v>1</v>
@@ -13210,7 +13210,7 @@
         <v>3</v>
       </c>
       <c r="V64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W64">
         <v>2</v>
@@ -13520,7 +13520,7 @@
         <v>2</v>
       </c>
       <c r="V66">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W66">
         <v>3</v>
@@ -13675,7 +13675,7 @@
         <v>2</v>
       </c>
       <c r="V67">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W67">
         <v>2</v>
@@ -13830,10 +13830,10 @@
         <v>2</v>
       </c>
       <c r="V68">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W68">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X68">
         <v>3</v>
@@ -13902,7 +13902,7 @@
         <v>12</v>
       </c>
       <c r="AT68">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AU68">
         <v>9</v>
@@ -13917,7 +13917,7 @@
         <v>14</v>
       </c>
       <c r="AY68">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="69" spans="1:51">
@@ -13985,7 +13985,7 @@
         <v>2</v>
       </c>
       <c r="V69">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W69">
         <v>3</v>
@@ -14140,7 +14140,7 @@
         <v>2</v>
       </c>
       <c r="V70">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W70">
         <v>3</v>
@@ -14292,10 +14292,10 @@
         <v>1</v>
       </c>
       <c r="U71">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V71">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W71">
         <v>3</v>
@@ -14367,7 +14367,7 @@
         <v>11</v>
       </c>
       <c r="AT71">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AU71">
         <v>13</v>
@@ -14382,7 +14382,7 @@
         <v>15</v>
       </c>
       <c r="AY71">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="72" spans="1:51">
@@ -14450,7 +14450,7 @@
         <v>2</v>
       </c>
       <c r="V72">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W72">
         <v>1</v>
@@ -14605,7 +14605,7 @@
         <v>2</v>
       </c>
       <c r="V73">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W73">
         <v>1</v>
@@ -14909,7 +14909,7 @@
         <v>3</v>
       </c>
       <c r="T75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U75">
         <v>2</v>
@@ -14987,7 +14987,7 @@
         <v>11</v>
       </c>
       <c r="AT75">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AU75">
         <v>12</v>
@@ -15002,7 +15002,7 @@
         <v>15</v>
       </c>
       <c r="AY75">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="76" spans="1:51">
@@ -15225,7 +15225,7 @@
         <v>2</v>
       </c>
       <c r="V77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W77">
         <v>2</v>
@@ -15380,7 +15380,7 @@
         <v>2</v>
       </c>
       <c r="V78">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W78">
         <v>2</v>
@@ -15535,7 +15535,7 @@
         <v>2</v>
       </c>
       <c r="V79">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W79">
         <v>3</v>
@@ -15678,7 +15678,7 @@
         <v>3</v>
       </c>
       <c r="R80">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S80">
         <v>2</v>
@@ -15690,7 +15690,7 @@
         <v>3</v>
       </c>
       <c r="V80">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W80">
         <v>1</v>
@@ -15762,7 +15762,7 @@
         <v>12</v>
       </c>
       <c r="AT80">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AU80">
         <v>14</v>
@@ -15777,7 +15777,7 @@
         <v>8</v>
       </c>
       <c r="AY80">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="81" spans="1:51">
@@ -15845,7 +15845,7 @@
         <v>2</v>
       </c>
       <c r="V81">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W81">
         <v>2</v>
@@ -16000,7 +16000,7 @@
         <v>2</v>
       </c>
       <c r="V82">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W82">
         <v>2</v>
@@ -16155,7 +16155,7 @@
         <v>2</v>
       </c>
       <c r="V83">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W83">
         <v>3</v>
@@ -16310,7 +16310,7 @@
         <v>2</v>
       </c>
       <c r="V84">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W84">
         <v>2</v>
@@ -16349,10 +16349,10 @@
         <v>3</v>
       </c>
       <c r="AI84">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ84">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK84">
         <v>3</v>
@@ -16391,13 +16391,13 @@
         <v>14</v>
       </c>
       <c r="AW84">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AX84">
         <v>14</v>
       </c>
       <c r="AY84">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="85" spans="1:51">
@@ -16444,7 +16444,7 @@
         <v>2</v>
       </c>
       <c r="O85">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P85">
         <v>3</v>
@@ -16465,7 +16465,7 @@
         <v>3</v>
       </c>
       <c r="V85">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W85">
         <v>1</v>
@@ -16534,7 +16534,7 @@
         <v>10</v>
       </c>
       <c r="AS85">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AT85">
         <v>7</v>
@@ -16552,7 +16552,7 @@
         <v>13</v>
       </c>
       <c r="AY85">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="86" spans="1:51">
@@ -16620,7 +16620,7 @@
         <v>1</v>
       </c>
       <c r="V86">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W86">
         <v>2</v>
@@ -16930,7 +16930,7 @@
         <v>2</v>
       </c>
       <c r="V88">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W88">
         <v>3</v>
@@ -17240,7 +17240,7 @@
         <v>2</v>
       </c>
       <c r="V90">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W90">
         <v>1</v>
@@ -17395,7 +17395,7 @@
         <v>1</v>
       </c>
       <c r="V91">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W91">
         <v>3</v>
@@ -17714,7 +17714,7 @@
         <v>3</v>
       </c>
       <c r="Y93">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z93">
         <v>1</v>
@@ -17741,7 +17741,7 @@
         <v>3</v>
       </c>
       <c r="AH93">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI93">
         <v>3</v>
@@ -17780,10 +17780,10 @@
         <v>10</v>
       </c>
       <c r="AU93">
+        <v>11</v>
+      </c>
+      <c r="AV93">
         <v>13</v>
-      </c>
-      <c r="AV93">
-        <v>12</v>
       </c>
       <c r="AW93">
         <v>12</v>
@@ -17792,7 +17792,7 @@
         <v>15</v>
       </c>
       <c r="AY93">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="94" spans="1:51">
@@ -18325,7 +18325,7 @@
         <v>2</v>
       </c>
       <c r="V97">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W97">
         <v>2</v>
@@ -18480,7 +18480,7 @@
         <v>2</v>
       </c>
       <c r="V98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W98">
         <v>3</v>
@@ -18635,7 +18635,7 @@
         <v>2</v>
       </c>
       <c r="V99">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W99">
         <v>3</v>
@@ -18790,7 +18790,7 @@
         <v>1</v>
       </c>
       <c r="V100">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W100">
         <v>3</v>
@@ -19100,7 +19100,7 @@
         <v>3</v>
       </c>
       <c r="V102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W102">
         <v>3</v>
@@ -19255,7 +19255,7 @@
         <v>2</v>
       </c>
       <c r="V103">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W103">
         <v>1</v>
@@ -19720,7 +19720,7 @@
         <v>3</v>
       </c>
       <c r="V106">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W106">
         <v>2</v>
@@ -19875,7 +19875,7 @@
         <v>3</v>
       </c>
       <c r="V107">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W107">
         <v>3</v>
@@ -19938,7 +19938,7 @@
         <v>3</v>
       </c>
       <c r="AQ107">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AR107">
         <v>10</v>
@@ -19959,10 +19959,10 @@
         <v>10</v>
       </c>
       <c r="AX107">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY107">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="108" spans="1:51">
@@ -20030,7 +20030,7 @@
         <v>2</v>
       </c>
       <c r="V108">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W108">
         <v>2</v>
@@ -20155,7 +20155,7 @@
         <v>2</v>
       </c>
       <c r="L109">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M109">
         <v>1</v>
@@ -20185,7 +20185,7 @@
         <v>3</v>
       </c>
       <c r="V109">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W109">
         <v>2</v>
@@ -20251,7 +20251,7 @@
         <v>2</v>
       </c>
       <c r="AR109">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AS109">
         <v>9</v>
@@ -20272,7 +20272,7 @@
         <v>13</v>
       </c>
       <c r="AY109">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="110" spans="1:51">
@@ -20322,7 +20322,7 @@
         <v>2</v>
       </c>
       <c r="P110">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q110">
         <v>2</v>
@@ -20334,16 +20334,16 @@
         <v>3</v>
       </c>
       <c r="T110">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U110">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V110">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W110">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X110">
         <v>3</v>
@@ -20394,22 +20394,22 @@
         <v>3</v>
       </c>
       <c r="AN110">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO110">
         <v>3</v>
       </c>
       <c r="AP110">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AQ110">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR110">
         <v>13</v>
       </c>
       <c r="AS110">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AT110">
         <v>10</v>
@@ -20424,10 +20424,10 @@
         <v>11</v>
       </c>
       <c r="AX110">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AY110">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="111" spans="1:51">
@@ -20650,7 +20650,7 @@
         <v>2</v>
       </c>
       <c r="V112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W112">
         <v>3</v>
@@ -20805,7 +20805,7 @@
         <v>1</v>
       </c>
       <c r="V113">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W113">
         <v>1</v>
@@ -20960,7 +20960,7 @@
         <v>3</v>
       </c>
       <c r="V114">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W114">
         <v>3</v>
@@ -21118,7 +21118,7 @@
         <v>3</v>
       </c>
       <c r="W115">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X115">
         <v>3</v>
@@ -21154,7 +21154,7 @@
         <v>2</v>
       </c>
       <c r="AI115">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ115">
         <v>3</v>
@@ -21187,7 +21187,7 @@
         <v>9</v>
       </c>
       <c r="AT115">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AU115">
         <v>13</v>
@@ -21196,13 +21196,13 @@
         <v>13</v>
       </c>
       <c r="AW115">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX115">
         <v>13</v>
       </c>
       <c r="AY115">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="116" spans="1:51">
@@ -21404,7 +21404,7 @@
         <v>1</v>
       </c>
       <c r="O117">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P117">
         <v>2</v>
@@ -21425,7 +21425,7 @@
         <v>1</v>
       </c>
       <c r="V117">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W117">
         <v>1</v>
@@ -21494,7 +21494,7 @@
         <v>9</v>
       </c>
       <c r="AS117">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AT117">
         <v>5</v>
@@ -21512,7 +21512,7 @@
         <v>10</v>
       </c>
       <c r="AY117">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="118" spans="1:51">
@@ -21580,7 +21580,7 @@
         <v>1</v>
       </c>
       <c r="V118">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W118">
         <v>1</v>
@@ -21735,7 +21735,7 @@
         <v>1</v>
       </c>
       <c r="V119">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W119">
         <v>2</v>
@@ -21890,7 +21890,7 @@
         <v>1</v>
       </c>
       <c r="V120">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W120">
         <v>2</v>
@@ -22510,7 +22510,7 @@
         <v>2</v>
       </c>
       <c r="V124">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W124">
         <v>1</v>
@@ -22665,7 +22665,7 @@
         <v>3</v>
       </c>
       <c r="V125">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W125">
         <v>1</v>
@@ -22975,7 +22975,7 @@
         <v>2</v>
       </c>
       <c r="V127">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W127">
         <v>3</v>
@@ -23264,7 +23264,7 @@
         <v>3</v>
       </c>
       <c r="O129">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P129">
         <v>3</v>
@@ -23276,19 +23276,19 @@
         <v>3</v>
       </c>
       <c r="S129">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T129">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U129">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V129">
         <v>3</v>
       </c>
       <c r="W129">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X129">
         <v>3</v>
@@ -23354,7 +23354,7 @@
         <v>11</v>
       </c>
       <c r="AS129">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AT129">
         <v>11</v>
@@ -23372,7 +23372,7 @@
         <v>14</v>
       </c>
       <c r="AY129">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="130" spans="1:51">
@@ -23440,7 +23440,7 @@
         <v>1</v>
       </c>
       <c r="V130">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W130">
         <v>3</v>
@@ -23750,7 +23750,7 @@
         <v>3</v>
       </c>
       <c r="V132">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W132">
         <v>3</v>
@@ -23905,7 +23905,7 @@
         <v>3</v>
       </c>
       <c r="V133">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W133">
         <v>3</v>
@@ -24215,7 +24215,7 @@
         <v>2</v>
       </c>
       <c r="V135">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W135">
         <v>2</v>
@@ -24680,7 +24680,7 @@
         <v>2</v>
       </c>
       <c r="V138">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W138">
         <v>2</v>
@@ -24835,7 +24835,7 @@
         <v>3</v>
       </c>
       <c r="V139">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W139">
         <v>3</v>
@@ -24990,10 +24990,10 @@
         <v>1</v>
       </c>
       <c r="V140">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W140">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X140">
         <v>3</v>
@@ -25062,7 +25062,7 @@
         <v>10</v>
       </c>
       <c r="AT140">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AU140">
         <v>14</v>
@@ -25077,7 +25077,7 @@
         <v>15</v>
       </c>
       <c r="AY140">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="141" spans="1:51">
@@ -25145,7 +25145,7 @@
         <v>1</v>
       </c>
       <c r="V141">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W141">
         <v>1</v>
@@ -25300,7 +25300,7 @@
         <v>2</v>
       </c>
       <c r="V142">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W142">
         <v>2</v>
@@ -25455,10 +25455,10 @@
         <v>2</v>
       </c>
       <c r="V143">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W143">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X143">
         <v>3</v>
@@ -25527,7 +25527,7 @@
         <v>11</v>
       </c>
       <c r="AT143">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AU143">
         <v>12</v>
@@ -25542,7 +25542,7 @@
         <v>12</v>
       </c>
       <c r="AY143">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="144" spans="1:51">
@@ -26385,7 +26385,7 @@
         <v>3</v>
       </c>
       <c r="V149">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W149">
         <v>1</v>
@@ -26695,7 +26695,7 @@
         <v>3</v>
       </c>
       <c r="V151">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W151">
         <v>1</v>
@@ -26734,7 +26734,7 @@
         <v>3</v>
       </c>
       <c r="AI151">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ151">
         <v>3</v>
@@ -26746,10 +26746,10 @@
         <v>3</v>
       </c>
       <c r="AM151">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN151">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO151">
         <v>3</v>
@@ -26758,7 +26758,7 @@
         <v>3</v>
       </c>
       <c r="AQ151">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AR151">
         <v>9</v>
@@ -26776,10 +26776,10 @@
         <v>12</v>
       </c>
       <c r="AW151">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AX151">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AY151">
         <v>74</v>
@@ -26814,7 +26814,7 @@
         <v>2</v>
       </c>
       <c r="J152">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K152">
         <v>1</v>
@@ -26916,7 +26916,7 @@
         <v>2</v>
       </c>
       <c r="AR152">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AS152">
         <v>8</v>
@@ -26937,7 +26937,7 @@
         <v>14</v>
       </c>
       <c r="AY152">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="153" spans="1:51">
@@ -27005,7 +27005,7 @@
         <v>2</v>
       </c>
       <c r="V153">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W153">
         <v>3</v>
@@ -27160,7 +27160,7 @@
         <v>2</v>
       </c>
       <c r="V154">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W154">
         <v>2</v>
@@ -27935,7 +27935,7 @@
         <v>2</v>
       </c>
       <c r="V159">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W159">
         <v>2</v>
@@ -27998,7 +27998,7 @@
         <v>3</v>
       </c>
       <c r="AQ159">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AR159">
         <v>9</v>
@@ -28019,10 +28019,10 @@
         <v>11</v>
       </c>
       <c r="AX159">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AY159">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="160" spans="1:51">
@@ -28245,7 +28245,7 @@
         <v>2</v>
       </c>
       <c r="V161">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W161">
         <v>2</v>
@@ -28555,10 +28555,10 @@
         <v>1</v>
       </c>
       <c r="V163">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W163">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X163">
         <v>3</v>
@@ -28627,7 +28627,7 @@
         <v>12</v>
       </c>
       <c r="AT163">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AU163">
         <v>15</v>
@@ -28642,7 +28642,7 @@
         <v>15</v>
       </c>
       <c r="AY163">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="164" spans="1:51">
@@ -28710,7 +28710,7 @@
         <v>3</v>
       </c>
       <c r="V164">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W164">
         <v>3</v>
@@ -28865,7 +28865,7 @@
         <v>3</v>
       </c>
       <c r="V165">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W165">
         <v>3</v>
@@ -29640,7 +29640,7 @@
         <v>3</v>
       </c>
       <c r="V170">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W170">
         <v>3</v>
@@ -30227,19 +30227,19 @@
         <v>2</v>
       </c>
       <c r="K174">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L174">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M174">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N174">
         <v>3</v>
       </c>
       <c r="O174">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P174">
         <v>3</v>
@@ -30269,7 +30269,7 @@
         <v>2</v>
       </c>
       <c r="Y174">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z174">
         <v>2</v>
@@ -30314,7 +30314,7 @@
         <v>2</v>
       </c>
       <c r="AN174">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO174">
         <v>3</v>
@@ -30326,16 +30326,16 @@
         <v>3</v>
       </c>
       <c r="AR174">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AS174">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT174">
         <v>13</v>
       </c>
       <c r="AU174">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AV174">
         <v>13</v>
@@ -30344,7 +30344,7 @@
         <v>9</v>
       </c>
       <c r="AX174">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AY174">
         <v>83</v>
@@ -30633,7 +30633,7 @@
         <v>3</v>
       </c>
       <c r="AQ176">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AR176">
         <v>10</v>
@@ -30654,10 +30654,10 @@
         <v>12</v>
       </c>
       <c r="AX176">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AY176">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="177" spans="1:51">
@@ -30725,7 +30725,7 @@
         <v>3</v>
       </c>
       <c r="V177">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W177">
         <v>1</v>
@@ -30880,7 +30880,7 @@
         <v>2</v>
       </c>
       <c r="V178">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W178">
         <v>1</v>
@@ -31500,7 +31500,7 @@
         <v>2</v>
       </c>
       <c r="V182">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W182">
         <v>3</v>
@@ -31655,7 +31655,7 @@
         <v>2</v>
       </c>
       <c r="V183">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W183">
         <v>1</v>
@@ -31810,7 +31810,7 @@
         <v>2</v>
       </c>
       <c r="V184">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W184">
         <v>3</v>
@@ -32120,7 +32120,7 @@
         <v>3</v>
       </c>
       <c r="V186">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W186">
         <v>3</v>
@@ -32278,7 +32278,7 @@
         <v>3</v>
       </c>
       <c r="W187">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X187">
         <v>3</v>
@@ -32347,7 +32347,7 @@
         <v>10</v>
       </c>
       <c r="AT187">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AU187">
         <v>15</v>
@@ -32362,7 +32362,7 @@
         <v>14</v>
       </c>
       <c r="AY187">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="188" spans="1:51">
@@ -32430,7 +32430,7 @@
         <v>2</v>
       </c>
       <c r="V188">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W188">
         <v>3</v>
@@ -32585,7 +32585,7 @@
         <v>1</v>
       </c>
       <c r="V189">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W189">
         <v>1</v>
@@ -32895,7 +32895,7 @@
         <v>2</v>
       </c>
       <c r="V191">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W191">
         <v>3</v>
@@ -33050,7 +33050,7 @@
         <v>2</v>
       </c>
       <c r="V192">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W192">
         <v>3</v>
@@ -33205,7 +33205,7 @@
         <v>3</v>
       </c>
       <c r="V193">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W193">
         <v>1</v>
@@ -33360,7 +33360,7 @@
         <v>3</v>
       </c>
       <c r="V194">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W194">
         <v>2</v>
@@ -33375,7 +33375,7 @@
         <v>3</v>
       </c>
       <c r="AA194">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB194">
         <v>3</v>
@@ -33435,7 +33435,7 @@
         <v>10</v>
       </c>
       <c r="AU194">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AV194">
         <v>15</v>
@@ -33447,7 +33447,7 @@
         <v>13</v>
       </c>
       <c r="AY194">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="195" spans="1:51">
@@ -33670,7 +33670,7 @@
         <v>3</v>
       </c>
       <c r="V196">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W196">
         <v>3</v>
@@ -33825,7 +33825,7 @@
         <v>3</v>
       </c>
       <c r="V197">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W197">
         <v>2</v>
@@ -34135,7 +34135,7 @@
         <v>1</v>
       </c>
       <c r="V199">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W199">
         <v>3</v>
@@ -34445,7 +34445,7 @@
         <v>3</v>
       </c>
       <c r="V201">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W201">
         <v>1</v>
@@ -34570,10 +34570,10 @@
         <v>1</v>
       </c>
       <c r="L202">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M202">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N202">
         <v>2</v>
@@ -34600,7 +34600,7 @@
         <v>1</v>
       </c>
       <c r="V202">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W202">
         <v>1</v>
@@ -34666,7 +34666,7 @@
         <v>2</v>
       </c>
       <c r="AR202">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AS202">
         <v>6</v>
@@ -34687,7 +34687,7 @@
         <v>10</v>
       </c>
       <c r="AY202">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="203" spans="1:51">
@@ -34755,7 +34755,7 @@
         <v>1</v>
       </c>
       <c r="V203">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W203">
         <v>3</v>
@@ -35029,7 +35029,7 @@
         <v>1</v>
       </c>
       <c r="J205">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K205">
         <v>3</v>
@@ -35065,7 +35065,7 @@
         <v>3</v>
       </c>
       <c r="V205">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W205">
         <v>2</v>
@@ -35131,7 +35131,7 @@
         <v>2</v>
       </c>
       <c r="AR205">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AS205">
         <v>12</v>
@@ -35152,7 +35152,7 @@
         <v>14</v>
       </c>
       <c r="AY205">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="206" spans="1:51">
@@ -35211,7 +35211,7 @@
         <v>2</v>
       </c>
       <c r="S206">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T206">
         <v>1</v>
@@ -35220,7 +35220,7 @@
         <v>2</v>
       </c>
       <c r="V206">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W206">
         <v>3</v>
@@ -35292,7 +35292,7 @@
         <v>8</v>
       </c>
       <c r="AT206">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AU206">
         <v>14</v>
@@ -35307,7 +35307,7 @@
         <v>15</v>
       </c>
       <c r="AY206">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="207" spans="1:51">
@@ -35375,7 +35375,7 @@
         <v>2</v>
       </c>
       <c r="V207">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W207">
         <v>2</v>
@@ -35530,7 +35530,7 @@
         <v>1</v>
       </c>
       <c r="V208">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W208">
         <v>3</v>
@@ -35685,7 +35685,7 @@
         <v>2</v>
       </c>
       <c r="V209">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W209">
         <v>3</v>
@@ -35840,7 +35840,7 @@
         <v>2</v>
       </c>
       <c r="V210">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W210">
         <v>2</v>
@@ -35995,7 +35995,7 @@
         <v>2</v>
       </c>
       <c r="V211">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W211">
         <v>2</v>
@@ -36460,7 +36460,7 @@
         <v>2</v>
       </c>
       <c r="V214">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W214">
         <v>3</v>
@@ -37080,7 +37080,7 @@
         <v>3</v>
       </c>
       <c r="V218">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W218">
         <v>2</v>
@@ -37235,7 +37235,7 @@
         <v>3</v>
       </c>
       <c r="V219">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W219">
         <v>2</v>
@@ -37542,10 +37542,10 @@
         <v>2</v>
       </c>
       <c r="U221">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V221">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W221">
         <v>3</v>
@@ -37617,7 +37617,7 @@
         <v>9</v>
       </c>
       <c r="AT221">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AU221">
         <v>11</v>
@@ -37632,7 +37632,7 @@
         <v>13</v>
       </c>
       <c r="AY221">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="222" spans="1:51">
@@ -37700,7 +37700,7 @@
         <v>2</v>
       </c>
       <c r="V222">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W222">
         <v>3</v>
@@ -37855,7 +37855,7 @@
         <v>2</v>
       </c>
       <c r="V223">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W223">
         <v>3</v>
@@ -38010,7 +38010,7 @@
         <v>2</v>
       </c>
       <c r="V224">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W224">
         <v>3</v>
@@ -38165,7 +38165,7 @@
         <v>3</v>
       </c>
       <c r="V225">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W225">
         <v>3</v>
@@ -38475,7 +38475,7 @@
         <v>1</v>
       </c>
       <c r="V227">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W227">
         <v>3</v>
@@ -39560,7 +39560,7 @@
         <v>2</v>
       </c>
       <c r="V234">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W234">
         <v>3</v>
@@ -40025,7 +40025,7 @@
         <v>2</v>
       </c>
       <c r="V237">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W237">
         <v>2</v>
@@ -40180,7 +40180,7 @@
         <v>1</v>
       </c>
       <c r="V238">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W238">
         <v>3</v>
@@ -40335,7 +40335,7 @@
         <v>2</v>
       </c>
       <c r="V239">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W239">
         <v>2</v>
@@ -40645,7 +40645,7 @@
         <v>3</v>
       </c>
       <c r="V241">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W241">
         <v>3</v>
@@ -40800,7 +40800,7 @@
         <v>2</v>
       </c>
       <c r="V242">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W242">
         <v>1</v>
@@ -40955,7 +40955,7 @@
         <v>2</v>
       </c>
       <c r="V243">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W243">
         <v>2</v>
@@ -41110,7 +41110,7 @@
         <v>2</v>
       </c>
       <c r="V244">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W244">
         <v>2</v>
@@ -41265,7 +41265,7 @@
         <v>2</v>
       </c>
       <c r="V245">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W245">
         <v>3</v>
@@ -41575,7 +41575,7 @@
         <v>3</v>
       </c>
       <c r="V247">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W247">
         <v>1</v>
@@ -41730,7 +41730,7 @@
         <v>3</v>
       </c>
       <c r="V248">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W248">
         <v>2</v>
@@ -42037,7 +42037,7 @@
         <v>1</v>
       </c>
       <c r="U250">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V250">
         <v>2</v>
@@ -42112,7 +42112,7 @@
         <v>11</v>
       </c>
       <c r="AT250">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AU250">
         <v>13</v>
@@ -42127,7 +42127,7 @@
         <v>13</v>
       </c>
       <c r="AY250">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="251" spans="1:51">
@@ -42195,7 +42195,7 @@
         <v>3</v>
       </c>
       <c r="V251">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W251">
         <v>3</v>
@@ -42204,7 +42204,7 @@
         <v>3</v>
       </c>
       <c r="Y251">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z251">
         <v>3</v>
@@ -42270,7 +42270,7 @@
         <v>14</v>
       </c>
       <c r="AU251">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AV251">
         <v>12</v>
@@ -42282,7 +42282,7 @@
         <v>11</v>
       </c>
       <c r="AY251">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="252" spans="1:51">
@@ -42350,7 +42350,7 @@
         <v>3</v>
       </c>
       <c r="V252">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W252">
         <v>3</v>
@@ -42505,7 +42505,7 @@
         <v>3</v>
       </c>
       <c r="V253">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W253">
         <v>1</v>
@@ -42660,7 +42660,7 @@
         <v>3</v>
       </c>
       <c r="V254">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W254">
         <v>2</v>
@@ -42815,7 +42815,7 @@
         <v>2</v>
       </c>
       <c r="V255">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W255">
         <v>2</v>
@@ -43280,7 +43280,7 @@
         <v>1</v>
       </c>
       <c r="V258">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W258">
         <v>1</v>
@@ -43408,7 +43408,7 @@
         <v>2</v>
       </c>
       <c r="M259">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N259">
         <v>3</v>
@@ -43501,7 +43501,7 @@
         <v>3</v>
       </c>
       <c r="AR259">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AS259">
         <v>11</v>
@@ -43522,7 +43522,7 @@
         <v>15</v>
       </c>
       <c r="AY259">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="260" spans="1:51">
@@ -43590,7 +43590,7 @@
         <v>3</v>
       </c>
       <c r="V260">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W260">
         <v>3</v>
@@ -43745,7 +43745,7 @@
         <v>3</v>
       </c>
       <c r="V261">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W261">
         <v>2</v>
@@ -43900,7 +43900,7 @@
         <v>1</v>
       </c>
       <c r="V262">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W262">
         <v>3</v>
@@ -44055,7 +44055,7 @@
         <v>3</v>
       </c>
       <c r="V263">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W263">
         <v>3</v>
@@ -44520,7 +44520,7 @@
         <v>2</v>
       </c>
       <c r="V266">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W266">
         <v>3</v>
@@ -44675,7 +44675,7 @@
         <v>3</v>
       </c>
       <c r="V267">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W267">
         <v>3</v>
@@ -44821,7 +44821,7 @@
         <v>3</v>
       </c>
       <c r="S268">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T268">
         <v>1</v>
@@ -44830,7 +44830,7 @@
         <v>3</v>
       </c>
       <c r="V268">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W268">
         <v>2</v>
@@ -44902,7 +44902,7 @@
         <v>11</v>
       </c>
       <c r="AT268">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU268">
         <v>15</v>
@@ -44917,7 +44917,7 @@
         <v>15</v>
       </c>
       <c r="AY268">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="269" spans="1:51">
@@ -44976,7 +44976,7 @@
         <v>3</v>
       </c>
       <c r="S269">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T269">
         <v>1</v>
@@ -44985,7 +44985,7 @@
         <v>3</v>
       </c>
       <c r="V269">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W269">
         <v>2</v>
@@ -45057,7 +45057,7 @@
         <v>11</v>
       </c>
       <c r="AT269">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU269">
         <v>15</v>
@@ -45072,7 +45072,7 @@
         <v>15</v>
       </c>
       <c r="AY269">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="270" spans="1:51">
@@ -45116,13 +45116,13 @@
         <v>1</v>
       </c>
       <c r="N270">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O270">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P270">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q270">
         <v>2</v>
@@ -45209,7 +45209,7 @@
         <v>9</v>
       </c>
       <c r="AS270">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AT270">
         <v>5</v>
@@ -45227,7 +45227,7 @@
         <v>13</v>
       </c>
       <c r="AY270">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="271" spans="1:51">
@@ -45286,7 +45286,7 @@
         <v>3</v>
       </c>
       <c r="S271">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T271">
         <v>1</v>
@@ -45295,7 +45295,7 @@
         <v>3</v>
       </c>
       <c r="V271">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W271">
         <v>2</v>
@@ -45367,7 +45367,7 @@
         <v>11</v>
       </c>
       <c r="AT271">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AU271">
         <v>15</v>
@@ -45382,7 +45382,7 @@
         <v>15</v>
       </c>
       <c r="AY271">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="272" spans="1:51">
@@ -45417,7 +45417,7 @@
         <v>1</v>
       </c>
       <c r="K272">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L272">
         <v>1</v>
@@ -45438,16 +45438,16 @@
         <v>3</v>
       </c>
       <c r="R272">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S272">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T272">
         <v>1</v>
       </c>
       <c r="U272">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V272">
         <v>2</v>
@@ -45459,10 +45459,10 @@
         <v>2</v>
       </c>
       <c r="Y272">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z272">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA272">
         <v>3</v>
@@ -45474,7 +45474,7 @@
         <v>1</v>
       </c>
       <c r="AD272">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE272">
         <v>3</v>
@@ -45486,7 +45486,7 @@
         <v>3</v>
       </c>
       <c r="AH272">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI272">
         <v>3</v>
@@ -45504,10 +45504,10 @@
         <v>3</v>
       </c>
       <c r="AN272">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO272">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP272">
         <v>3</v>
@@ -45516,19 +45516,19 @@
         <v>3</v>
       </c>
       <c r="AR272">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AS272">
         <v>11</v>
       </c>
       <c r="AT272">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AU272">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AV272">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AW272">
         <v>12</v>
@@ -45537,7 +45537,7 @@
         <v>14</v>
       </c>
       <c r="AY272">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="273" spans="1:51">
@@ -45760,7 +45760,7 @@
         <v>3</v>
       </c>
       <c r="V274">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W274">
         <v>3</v>
@@ -45915,7 +45915,7 @@
         <v>2</v>
       </c>
       <c r="V275">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W275">
         <v>2</v>
@@ -46070,7 +46070,7 @@
         <v>2</v>
       </c>
       <c r="V276">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W276">
         <v>2</v>
@@ -46383,7 +46383,7 @@
         <v>3</v>
       </c>
       <c r="W278">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X278">
         <v>3</v>
@@ -46452,7 +46452,7 @@
         <v>8</v>
       </c>
       <c r="AT278">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AU278">
         <v>11</v>
@@ -46467,7 +46467,7 @@
         <v>15</v>
       </c>
       <c r="AY278">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="279" spans="1:51">
@@ -46520,7 +46520,7 @@
         <v>1</v>
       </c>
       <c r="Q279">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R279">
         <v>3</v>
@@ -46535,7 +46535,7 @@
         <v>3</v>
       </c>
       <c r="V279">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W279">
         <v>3</v>
@@ -46604,7 +46604,7 @@
         <v>13</v>
       </c>
       <c r="AS279">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AT279">
         <v>11</v>
@@ -46622,7 +46622,7 @@
         <v>14</v>
       </c>
       <c r="AY279">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="280" spans="1:51">
@@ -46702,7 +46702,7 @@
         <v>3</v>
       </c>
       <c r="Z280">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA280">
         <v>3</v>
@@ -46765,7 +46765,7 @@
         <v>11</v>
       </c>
       <c r="AU280">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AV280">
         <v>13</v>
@@ -46777,7 +46777,7 @@
         <v>15</v>
       </c>
       <c r="AY280">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="281" spans="1:51">
@@ -46833,10 +46833,10 @@
         <v>3</v>
       </c>
       <c r="R281">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S281">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T281">
         <v>1</v>
@@ -46848,7 +46848,7 @@
         <v>2</v>
       </c>
       <c r="W281">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X281">
         <v>3</v>
@@ -46917,7 +46917,7 @@
         <v>12</v>
       </c>
       <c r="AT281">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AU281">
         <v>15</v>
@@ -46932,7 +46932,7 @@
         <v>15</v>
       </c>
       <c r="AY281">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="282" spans="1:51">
@@ -46991,19 +46991,19 @@
         <v>1</v>
       </c>
       <c r="S282">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T282">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U282">
         <v>2</v>
       </c>
       <c r="V282">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W282">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X282">
         <v>1</v>
@@ -47072,7 +47072,7 @@
         <v>12</v>
       </c>
       <c r="AT282">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AU282">
         <v>13</v>
@@ -47087,7 +47087,7 @@
         <v>13</v>
       </c>
       <c r="AY282">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="283" spans="1:51">
@@ -47146,19 +47146,19 @@
         <v>1</v>
       </c>
       <c r="S283">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T283">
         <v>1</v>
       </c>
       <c r="U283">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V283">
         <v>3</v>
       </c>
       <c r="W283">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X283">
         <v>3</v>
@@ -47227,7 +47227,7 @@
         <v>12</v>
       </c>
       <c r="AT283">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AU283">
         <v>15</v>
@@ -47242,7 +47242,7 @@
         <v>14</v>
       </c>
       <c r="AY283">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="284" spans="1:51">
@@ -47465,7 +47465,7 @@
         <v>1</v>
       </c>
       <c r="V285">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W285">
         <v>3</v>
@@ -47620,7 +47620,7 @@
         <v>1</v>
       </c>
       <c r="V286">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W286">
         <v>2</v>
@@ -47775,7 +47775,7 @@
         <v>3</v>
       </c>
       <c r="V287">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W287">
         <v>3</v>
@@ -48085,7 +48085,7 @@
         <v>3</v>
       </c>
       <c r="V289">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W289">
         <v>3</v>
@@ -48386,7 +48386,7 @@
         <v>3</v>
       </c>
       <c r="S291">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T291">
         <v>1</v>
@@ -48395,7 +48395,7 @@
         <v>1</v>
       </c>
       <c r="V291">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W291">
         <v>3</v>
@@ -48431,7 +48431,7 @@
         <v>3</v>
       </c>
       <c r="AH291">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI291">
         <v>2</v>
@@ -48467,13 +48467,13 @@
         <v>12</v>
       </c>
       <c r="AT291">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AU291">
         <v>15</v>
       </c>
       <c r="AV291">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AW291">
         <v>11</v>
@@ -48482,7 +48482,7 @@
         <v>15</v>
       </c>
       <c r="AY291">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="292" spans="1:51">
@@ -48511,7 +48511,7 @@
         <v>17</v>
       </c>
       <c r="I292">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J292">
         <v>1</v>
@@ -48616,7 +48616,7 @@
         <v>1</v>
       </c>
       <c r="AR292">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AS292">
         <v>11</v>
@@ -48637,7 +48637,7 @@
         <v>11</v>
       </c>
       <c r="AY292">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="293" spans="1:51">
@@ -49325,7 +49325,7 @@
         <v>1</v>
       </c>
       <c r="V297">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W297">
         <v>1</v>
@@ -49379,7 +49379,7 @@
         <v>3</v>
       </c>
       <c r="AN297">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AO297">
         <v>2</v>
@@ -49409,10 +49409,10 @@
         <v>11</v>
       </c>
       <c r="AX297">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AY297">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="298" spans="1:51">
@@ -49480,7 +49480,7 @@
         <v>3</v>
       </c>
       <c r="V298">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W298">
         <v>3</v>
@@ -49635,7 +49635,7 @@
         <v>3</v>
       </c>
       <c r="V299">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W299">
         <v>3</v>
@@ -49945,10 +49945,10 @@
         <v>1</v>
       </c>
       <c r="V301">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W301">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X301">
         <v>3</v>
@@ -50017,7 +50017,7 @@
         <v>5</v>
       </c>
       <c r="AT301">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AU301">
         <v>13</v>
@@ -50032,7 +50032,7 @@
         <v>15</v>
       </c>
       <c r="AY301">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="302" spans="1:51">
@@ -50100,7 +50100,7 @@
         <v>2</v>
       </c>
       <c r="V302">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W302">
         <v>3</v>
@@ -50255,7 +50255,7 @@
         <v>3</v>
       </c>
       <c r="V303">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W303">
         <v>3</v>
@@ -50455,7 +50455,7 @@
         <v>3</v>
       </c>
       <c r="AK304">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AL304">
         <v>3</v>
@@ -50491,13 +50491,13 @@
         <v>10</v>
       </c>
       <c r="AW304">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX304">
         <v>11</v>
       </c>
       <c r="AY304">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="305" spans="1:51">
@@ -50526,7 +50526,7 @@
         <v>15</v>
       </c>
       <c r="I305">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J305">
         <v>1</v>
@@ -50544,34 +50544,34 @@
         <v>2</v>
       </c>
       <c r="O305">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P305">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q305">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R305">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S305">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T305">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U305">
         <v>3</v>
       </c>
       <c r="V305">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W305">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X305">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y305">
         <v>1</v>
@@ -50592,7 +50592,7 @@
         <v>1</v>
       </c>
       <c r="AE305">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF305">
         <v>3</v>
@@ -50628,28 +50628,28 @@
         <v>3</v>
       </c>
       <c r="AQ305">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AR305">
+        <v>10</v>
+      </c>
+      <c r="AS305">
+        <v>11</v>
+      </c>
+      <c r="AT305">
+        <v>8</v>
+      </c>
+      <c r="AU305">
+        <v>4</v>
+      </c>
+      <c r="AV305">
         <v>9</v>
-      </c>
-      <c r="AS305">
-        <v>6</v>
-      </c>
-      <c r="AT305">
-        <v>14</v>
-      </c>
-      <c r="AU305">
-        <v>6</v>
-      </c>
-      <c r="AV305">
-        <v>8</v>
       </c>
       <c r="AW305">
         <v>11</v>
       </c>
       <c r="AX305">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY305">
         <v>65</v>
@@ -50723,7 +50723,7 @@
         <v>2</v>
       </c>
       <c r="W306">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X306">
         <v>2</v>
@@ -50792,7 +50792,7 @@
         <v>6</v>
       </c>
       <c r="AT306">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AU306">
         <v>11</v>
@@ -50807,7 +50807,7 @@
         <v>11</v>
       </c>
       <c r="AY306">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="307" spans="1:51">
@@ -51194,7 +51194,7 @@
         <v>3</v>
       </c>
       <c r="Y309">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z309">
         <v>3</v>
@@ -51224,10 +51224,10 @@
         <v>3</v>
       </c>
       <c r="AI309">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ309">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AK309">
         <v>3</v>
@@ -51260,13 +51260,13 @@
         <v>10</v>
       </c>
       <c r="AU309">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AV309">
         <v>16</v>
       </c>
       <c r="AW309">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX309">
         <v>13</v>
@@ -51495,10 +51495,10 @@
         <v>2</v>
       </c>
       <c r="V311">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W311">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X311">
         <v>2</v>
@@ -51567,7 +51567,7 @@
         <v>10</v>
       </c>
       <c r="AT311">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AU311">
         <v>11</v>
@@ -51582,7 +51582,7 @@
         <v>14</v>
       </c>
       <c r="AY311">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="312" spans="1:51">
@@ -51650,7 +51650,7 @@
         <v>2</v>
       </c>
       <c r="V312">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W312">
         <v>2</v>
@@ -51960,7 +51960,7 @@
         <v>1</v>
       </c>
       <c r="V314">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W314">
         <v>3</v>
@@ -52115,7 +52115,7 @@
         <v>3</v>
       </c>
       <c r="V315">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W315">
         <v>3</v>
@@ -52151,7 +52151,7 @@
         <v>2</v>
       </c>
       <c r="AH315">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI315">
         <v>3</v>
@@ -52193,7 +52193,7 @@
         <v>9</v>
       </c>
       <c r="AV315">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AW315">
         <v>10</v>
@@ -52202,7 +52202,7 @@
         <v>8</v>
       </c>
       <c r="AY315">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="316" spans="1:51">
@@ -52270,7 +52270,7 @@
         <v>2</v>
       </c>
       <c r="V316">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W316">
         <v>2</v>
@@ -52425,7 +52425,7 @@
         <v>1</v>
       </c>
       <c r="V317">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W317">
         <v>1</v>
@@ -52589,7 +52589,7 @@
         <v>3</v>
       </c>
       <c r="Y318">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z318">
         <v>3</v>
@@ -52655,7 +52655,7 @@
         <v>9</v>
       </c>
       <c r="AU318">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AV318">
         <v>16</v>
@@ -52667,7 +52667,7 @@
         <v>13</v>
       </c>
       <c r="AY318">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="319" spans="1:51">
@@ -52735,7 +52735,7 @@
         <v>3</v>
       </c>
       <c r="V319">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W319">
         <v>1</v>
@@ -52869,7 +52869,7 @@
         <v>3</v>
       </c>
       <c r="O320">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P320">
         <v>1</v>
@@ -52911,7 +52911,7 @@
         <v>3</v>
       </c>
       <c r="AC320">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD320">
         <v>3</v>
@@ -52959,7 +52959,7 @@
         <v>10</v>
       </c>
       <c r="AS320">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AT320">
         <v>11</v>
@@ -52968,7 +52968,7 @@
         <v>12</v>
       </c>
       <c r="AV320">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AW320">
         <v>12</v>
@@ -52977,7 +52977,7 @@
         <v>15</v>
       </c>
       <c r="AY320">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="321" spans="1:51">
@@ -53200,7 +53200,7 @@
         <v>3</v>
       </c>
       <c r="V322">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W322">
         <v>1</v>
@@ -53355,7 +53355,7 @@
         <v>3</v>
       </c>
       <c r="V323">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W323">
         <v>1</v>
@@ -53418,7 +53418,7 @@
         <v>3</v>
       </c>
       <c r="AQ323">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AR323">
         <v>8</v>
@@ -53439,10 +53439,10 @@
         <v>11</v>
       </c>
       <c r="AX323">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AY323">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="324" spans="1:51">
@@ -53820,7 +53820,7 @@
         <v>3</v>
       </c>
       <c r="V326">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W326">
         <v>3</v>
@@ -53972,10 +53972,10 @@
         <v>3</v>
       </c>
       <c r="U327">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V327">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W327">
         <v>3</v>
@@ -53990,28 +53990,28 @@
         <v>3</v>
       </c>
       <c r="AA327">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB327">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC327">
         <v>3</v>
       </c>
       <c r="AD327">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE327">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF327">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG327">
         <v>3</v>
       </c>
       <c r="AH327">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI327">
         <v>1</v>
@@ -54029,10 +54029,10 @@
         <v>3</v>
       </c>
       <c r="AN327">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO327">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP327">
         <v>1</v>
@@ -54047,22 +54047,22 @@
         <v>12</v>
       </c>
       <c r="AT327">
+        <v>15</v>
+      </c>
+      <c r="AU327">
+        <v>11</v>
+      </c>
+      <c r="AV327">
         <v>14</v>
-      </c>
-      <c r="AU327">
-        <v>14</v>
-      </c>
-      <c r="AV327">
-        <v>12</v>
       </c>
       <c r="AW327">
         <v>6</v>
       </c>
       <c r="AX327">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AY327">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="328" spans="1:51">
@@ -54130,7 +54130,7 @@
         <v>3</v>
       </c>
       <c r="V328">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W328">
         <v>3</v>
@@ -54595,7 +54595,7 @@
         <v>3</v>
       </c>
       <c r="V331">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W331">
         <v>2</v>
@@ -54762,7 +54762,7 @@
         <v>3</v>
       </c>
       <c r="Z332">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA332">
         <v>3</v>
@@ -54825,7 +54825,7 @@
         <v>11</v>
       </c>
       <c r="AU332">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AV332">
         <v>12</v>
@@ -54837,7 +54837,7 @@
         <v>15</v>
       </c>
       <c r="AY332">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="333" spans="1:51">
@@ -54905,7 +54905,7 @@
         <v>2</v>
       </c>
       <c r="V333">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W333">
         <v>3</v>
@@ -55060,7 +55060,7 @@
         <v>1</v>
       </c>
       <c r="V334">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W334">
         <v>1</v>
@@ -55215,7 +55215,7 @@
         <v>1</v>
       </c>
       <c r="V335">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W335">
         <v>3</v>
@@ -55343,7 +55343,7 @@
         <v>2</v>
       </c>
       <c r="M336">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N336">
         <v>3</v>
@@ -55373,7 +55373,7 @@
         <v>2</v>
       </c>
       <c r="W336">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X336">
         <v>2</v>
@@ -55427,22 +55427,22 @@
         <v>3</v>
       </c>
       <c r="AO336">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP336">
         <v>3</v>
       </c>
       <c r="AQ336">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AR336">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AS336">
         <v>12</v>
       </c>
       <c r="AT336">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AU336">
         <v>13</v>
@@ -55454,10 +55454,10 @@
         <v>12</v>
       </c>
       <c r="AX336">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AY336">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="337" spans="1:51">
@@ -55579,16 +55579,16 @@
         <v>3</v>
       </c>
       <c r="AN337">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO337">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AP337">
         <v>3</v>
       </c>
       <c r="AQ337">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AR337">
         <v>9</v>
@@ -55609,10 +55609,10 @@
         <v>12</v>
       </c>
       <c r="AX337">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AY337">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="338" spans="1:51">
@@ -55835,10 +55835,10 @@
         <v>3</v>
       </c>
       <c r="V339">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W339">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X339">
         <v>2</v>
@@ -55907,7 +55907,7 @@
         <v>9</v>
       </c>
       <c r="AT339">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AU339">
         <v>10</v>
@@ -55922,7 +55922,7 @@
         <v>11</v>
       </c>
       <c r="AY339">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="340" spans="1:51">
@@ -56145,7 +56145,7 @@
         <v>2</v>
       </c>
       <c r="V341">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W341">
         <v>2</v>
@@ -56202,7 +56202,7 @@
         <v>2</v>
       </c>
       <c r="AO341">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP341">
         <v>3</v>
@@ -56229,10 +56229,10 @@
         <v>11</v>
       </c>
       <c r="AX341">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY341">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="342" spans="1:51">
@@ -56300,7 +56300,7 @@
         <v>3</v>
       </c>
       <c r="V342">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W342">
         <v>3</v>
@@ -56610,7 +56610,7 @@
         <v>3</v>
       </c>
       <c r="V344">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W344">
         <v>3</v>
@@ -56902,13 +56902,13 @@
         <v>1</v>
       </c>
       <c r="P346">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q346">
         <v>3</v>
       </c>
       <c r="R346">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S346">
         <v>1</v>
@@ -56920,34 +56920,34 @@
         <v>3</v>
       </c>
       <c r="V346">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W346">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X346">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y346">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z346">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA346">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB346">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC346">
         <v>1</v>
       </c>
       <c r="AD346">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE346">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF346">
         <v>2</v>
@@ -56971,10 +56971,10 @@
         <v>3</v>
       </c>
       <c r="AM346">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AN346">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO346">
         <v>3</v>
@@ -56983,31 +56983,31 @@
         <v>3</v>
       </c>
       <c r="AQ346">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AR346">
         <v>7</v>
       </c>
       <c r="AS346">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AT346">
         <v>9</v>
       </c>
       <c r="AU346">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV346">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW346">
         <v>8</v>
       </c>
       <c r="AX346">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AY346">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="347" spans="1:51">
@@ -57075,7 +57075,7 @@
         <v>1</v>
       </c>
       <c r="V347">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W347">
         <v>2</v>
@@ -57540,7 +57540,7 @@
         <v>2</v>
       </c>
       <c r="V350">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W350">
         <v>3</v>
@@ -57564,7 +57564,7 @@
         <v>1</v>
       </c>
       <c r="AD350">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE350">
         <v>3</v>
@@ -57618,7 +57618,7 @@
         <v>15</v>
       </c>
       <c r="AV350">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AW350">
         <v>12</v>
@@ -57627,7 +57627,7 @@
         <v>15</v>
       </c>
       <c r="AY350">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="351" spans="1:51">
@@ -57695,7 +57695,7 @@
         <v>3</v>
       </c>
       <c r="V351">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W351">
         <v>1</v>
@@ -58005,7 +58005,7 @@
         <v>3</v>
       </c>
       <c r="V353">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W353">
         <v>3</v>
@@ -58160,7 +58160,7 @@
         <v>1</v>
       </c>
       <c r="V354">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W354">
         <v>3</v>
@@ -58625,7 +58625,7 @@
         <v>3</v>
       </c>
       <c r="V357">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W357">
         <v>3</v>
@@ -58780,7 +58780,7 @@
         <v>3</v>
       </c>
       <c r="V358">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W358">
         <v>3</v>
@@ -58935,7 +58935,7 @@
         <v>3</v>
       </c>
       <c r="V359">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W359">
         <v>2</v>
@@ -59090,7 +59090,7 @@
         <v>1</v>
       </c>
       <c r="V360">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W360">
         <v>2</v>
@@ -59400,7 +59400,7 @@
         <v>2</v>
       </c>
       <c r="V362">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W362">
         <v>1</v>
@@ -59710,7 +59710,7 @@
         <v>3</v>
       </c>
       <c r="V364">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W364">
         <v>3</v>
@@ -59865,7 +59865,7 @@
         <v>3</v>
       </c>
       <c r="V365">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W365">
         <v>3</v>
@@ -60640,7 +60640,7 @@
         <v>2</v>
       </c>
       <c r="V370">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W370">
         <v>3</v>
@@ -60798,7 +60798,7 @@
         <v>3</v>
       </c>
       <c r="W371">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X371">
         <v>3</v>
@@ -60950,7 +60950,7 @@
         <v>1</v>
       </c>
       <c r="V372">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W372">
         <v>3</v>
@@ -61260,7 +61260,7 @@
         <v>2</v>
       </c>
       <c r="V374">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W374">
         <v>1</v>
@@ -61415,7 +61415,7 @@
         <v>1</v>
       </c>
       <c r="V375">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W375">
         <v>2</v>
@@ -61570,7 +61570,7 @@
         <v>2</v>
       </c>
       <c r="V376">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W376">
         <v>2</v>
@@ -61728,7 +61728,7 @@
         <v>2</v>
       </c>
       <c r="W377">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X377">
         <v>3</v>
@@ -61880,7 +61880,7 @@
         <v>3</v>
       </c>
       <c r="V378">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W378">
         <v>2</v>
@@ -62035,7 +62035,7 @@
         <v>1</v>
       </c>
       <c r="V379">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W379">
         <v>2</v>
@@ -62190,7 +62190,7 @@
         <v>3</v>
       </c>
       <c r="V380">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W380">
         <v>1</v>
@@ -62345,7 +62345,7 @@
         <v>3</v>
       </c>
       <c r="V381">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W381">
         <v>3</v>
@@ -62539,7 +62539,7 @@
         <v>1</v>
       </c>
       <c r="AI382">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ382">
         <v>3</v>
@@ -62581,13 +62581,13 @@
         <v>16</v>
       </c>
       <c r="AW382">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX382">
         <v>14</v>
       </c>
       <c r="AY382">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="383" spans="1:51">
@@ -62655,7 +62655,7 @@
         <v>3</v>
       </c>
       <c r="V383">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W383">
         <v>3</v>
@@ -62810,7 +62810,7 @@
         <v>3</v>
       </c>
       <c r="V384">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W384">
         <v>2</v>
@@ -63275,7 +63275,7 @@
         <v>2</v>
       </c>
       <c r="V387">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W387">
         <v>1</v>
@@ -63433,7 +63433,7 @@
         <v>2</v>
       </c>
       <c r="W388">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X388">
         <v>2</v>
@@ -63588,7 +63588,7 @@
         <v>2</v>
       </c>
       <c r="W389">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X389">
         <v>2</v>
@@ -63895,7 +63895,7 @@
         <v>1</v>
       </c>
       <c r="V391">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W391">
         <v>1</v>
@@ -64050,7 +64050,7 @@
         <v>2</v>
       </c>
       <c r="V392">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W392">
         <v>1</v>
@@ -64205,7 +64205,7 @@
         <v>2</v>
       </c>
       <c r="V393">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W393">
         <v>2</v>
@@ -64360,7 +64360,7 @@
         <v>2</v>
       </c>
       <c r="V394">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W394">
         <v>2</v>
@@ -64515,7 +64515,7 @@
         <v>2</v>
       </c>
       <c r="V395">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W395">
         <v>2</v>
@@ -64670,7 +64670,7 @@
         <v>2</v>
       </c>
       <c r="V396">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W396">
         <v>1</v>
@@ -64828,7 +64828,7 @@
         <v>2</v>
       </c>
       <c r="W397">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X397">
         <v>3</v>
@@ -64897,7 +64897,7 @@
         <v>8</v>
       </c>
       <c r="AT397">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AU397">
         <v>13</v>
@@ -64912,7 +64912,7 @@
         <v>13</v>
       </c>
       <c r="AY397">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="398" spans="1:51">
@@ -65445,7 +65445,7 @@
         <v>2</v>
       </c>
       <c r="V401">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W401">
         <v>3</v>
@@ -65469,7 +65469,7 @@
         <v>3</v>
       </c>
       <c r="AD401">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE401">
         <v>2</v>
@@ -65523,7 +65523,7 @@
         <v>10</v>
       </c>
       <c r="AV401">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW401">
         <v>5</v>
@@ -65532,7 +65532,7 @@
         <v>10</v>
       </c>
       <c r="AY401">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="402" spans="1:51">
@@ -65755,7 +65755,7 @@
         <v>1</v>
       </c>
       <c r="V403">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W403">
         <v>2</v>
@@ -66065,7 +66065,7 @@
         <v>3</v>
       </c>
       <c r="V405">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W405">
         <v>3</v>
@@ -66512,31 +66512,31 @@
         <v>1</v>
       </c>
       <c r="P408">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q408">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R408">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S408">
         <v>1</v>
       </c>
       <c r="T408">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U408">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V408">
         <v>3</v>
       </c>
       <c r="W408">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X408">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y408">
         <v>1</v>
@@ -66548,7 +66548,7 @@
         <v>3</v>
       </c>
       <c r="AB408">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC408">
         <v>3</v>
@@ -66557,16 +66557,16 @@
         <v>3</v>
       </c>
       <c r="AE408">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF408">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG408">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH408">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI408">
         <v>3</v>
@@ -66575,10 +66575,10 @@
         <v>3</v>
       </c>
       <c r="AK408">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AL408">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AM408">
         <v>3</v>
@@ -66587,7 +66587,7 @@
         <v>2</v>
       </c>
       <c r="AO408">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP408">
         <v>3</v>
@@ -66602,22 +66602,22 @@
         <v>7</v>
       </c>
       <c r="AT408">
+        <v>9</v>
+      </c>
+      <c r="AU408">
         <v>11</v>
       </c>
-      <c r="AU408">
+      <c r="AV408">
+        <v>15</v>
+      </c>
+      <c r="AW408">
+        <v>10</v>
+      </c>
+      <c r="AX408">
         <v>12</v>
       </c>
-      <c r="AV408">
-        <v>13</v>
-      </c>
-      <c r="AW408">
-        <v>12</v>
-      </c>
-      <c r="AX408">
-        <v>13</v>
-      </c>
       <c r="AY408">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="409" spans="1:51">
@@ -66879,13 +66879,13 @@
         <v>2</v>
       </c>
       <c r="AI410">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ410">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AK410">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AL410">
         <v>3</v>
@@ -66921,13 +66921,13 @@
         <v>11</v>
       </c>
       <c r="AW410">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AX410">
         <v>11</v>
       </c>
       <c r="AY410">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="411" spans="1:51">
@@ -66995,7 +66995,7 @@
         <v>2</v>
       </c>
       <c r="V411">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W411">
         <v>2</v>
@@ -67034,10 +67034,10 @@
         <v>2</v>
       </c>
       <c r="AI411">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ411">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK411">
         <v>3</v>
@@ -67150,7 +67150,7 @@
         <v>3</v>
       </c>
       <c r="V412">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W412">
         <v>2</v>
@@ -67189,10 +67189,10 @@
         <v>2</v>
       </c>
       <c r="AI412">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ412">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK412">
         <v>3</v>
@@ -67231,13 +67231,13 @@
         <v>12</v>
       </c>
       <c r="AW412">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AX412">
         <v>12</v>
       </c>
       <c r="AY412">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="413" spans="1:51">
@@ -67350,10 +67350,10 @@
         <v>3</v>
       </c>
       <c r="AK413">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AL413">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AM413">
         <v>2</v>
@@ -67386,13 +67386,13 @@
         <v>9</v>
       </c>
       <c r="AW413">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AX413">
         <v>11</v>
       </c>
       <c r="AY413">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="414" spans="1:51">
@@ -67460,7 +67460,7 @@
         <v>1</v>
       </c>
       <c r="V414">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W414">
         <v>2</v>
@@ -67508,7 +67508,7 @@
         <v>3</v>
       </c>
       <c r="AL414">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AM414">
         <v>2</v>
@@ -67541,13 +67541,13 @@
         <v>12</v>
       </c>
       <c r="AW414">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AX414">
         <v>10</v>
       </c>
       <c r="AY414">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="415" spans="1:51">
@@ -67624,7 +67624,7 @@
         <v>2</v>
       </c>
       <c r="Y415">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z415">
         <v>2</v>
@@ -67690,7 +67690,7 @@
         <v>12</v>
       </c>
       <c r="AU415">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AV415">
         <v>12</v>
@@ -67702,7 +67702,7 @@
         <v>10</v>
       </c>
       <c r="AY415">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="416" spans="1:51">
@@ -67770,7 +67770,7 @@
         <v>3</v>
       </c>
       <c r="V416">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W416">
         <v>2</v>
@@ -67809,7 +67809,7 @@
         <v>2</v>
       </c>
       <c r="AI416">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ416">
         <v>3</v>
@@ -67818,7 +67818,7 @@
         <v>3</v>
       </c>
       <c r="AL416">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AM416">
         <v>2</v>
@@ -67925,7 +67925,7 @@
         <v>3</v>
       </c>
       <c r="V417">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W417">
         <v>2</v>
@@ -68080,7 +68080,7 @@
         <v>3</v>
       </c>
       <c r="V418">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W418">
         <v>2</v>
@@ -68089,7 +68089,7 @@
         <v>3</v>
       </c>
       <c r="Y418">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z418">
         <v>3</v>
@@ -68125,7 +68125,7 @@
         <v>3</v>
       </c>
       <c r="AK418">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AL418">
         <v>3</v>
@@ -68155,19 +68155,19 @@
         <v>12</v>
       </c>
       <c r="AU418">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AV418">
         <v>13</v>
       </c>
       <c r="AW418">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AX418">
         <v>9</v>
       </c>
       <c r="AY418">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="419" spans="1:51">
@@ -68235,7 +68235,7 @@
         <v>2</v>
       </c>
       <c r="V419">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W419">
         <v>1</v>
@@ -68390,7 +68390,7 @@
         <v>3</v>
       </c>
       <c r="V420">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W420">
         <v>1</v>
@@ -68548,7 +68548,7 @@
         <v>3</v>
       </c>
       <c r="W421">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X421">
         <v>2</v>
@@ -68703,7 +68703,7 @@
         <v>3</v>
       </c>
       <c r="W422">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X422">
         <v>2</v>
@@ -68870,7 +68870,7 @@
         <v>3</v>
       </c>
       <c r="AA423">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB423">
         <v>3</v>
@@ -68930,7 +68930,7 @@
         <v>11</v>
       </c>
       <c r="AU423">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AV423">
         <v>8</v>
@@ -68942,7 +68942,7 @@
         <v>12</v>
       </c>
       <c r="AY423">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="424" spans="1:51">
@@ -69165,7 +69165,7 @@
         <v>3</v>
       </c>
       <c r="V425">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W425">
         <v>2</v>
@@ -69174,7 +69174,7 @@
         <v>1</v>
       </c>
       <c r="Y425">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z425">
         <v>3</v>
@@ -69240,7 +69240,7 @@
         <v>11</v>
       </c>
       <c r="AU425">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV425">
         <v>9</v>
@@ -69252,7 +69252,7 @@
         <v>12</v>
       </c>
       <c r="AY425">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="426" spans="1:51">
@@ -69320,7 +69320,7 @@
         <v>3</v>
       </c>
       <c r="V426">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W426">
         <v>1</v>
@@ -69475,7 +69475,7 @@
         <v>3</v>
       </c>
       <c r="V427">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W427">
         <v>1</v>
@@ -69633,7 +69633,7 @@
         <v>1</v>
       </c>
       <c r="W428">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X428">
         <v>2</v>
@@ -69785,7 +69785,7 @@
         <v>3</v>
       </c>
       <c r="V429">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W429">
         <v>1</v>
@@ -70095,7 +70095,7 @@
         <v>3</v>
       </c>
       <c r="V431">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W431">
         <v>1</v>
@@ -70274,10 +70274,10 @@
         <v>1</v>
       </c>
       <c r="AD432">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE432">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AF432">
         <v>1</v>
@@ -70286,7 +70286,7 @@
         <v>1</v>
       </c>
       <c r="AH432">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI432">
         <v>3</v>
@@ -70328,7 +70328,7 @@
         <v>12</v>
       </c>
       <c r="AV432">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AW432">
         <v>12</v>
@@ -70337,7 +70337,7 @@
         <v>12</v>
       </c>
       <c r="AY432">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="433" spans="1:51">
@@ -70405,7 +70405,7 @@
         <v>3</v>
       </c>
       <c r="V433">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W433">
         <v>2</v>
@@ -70530,7 +70530,7 @@
         <v>2</v>
       </c>
       <c r="L434">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M434">
         <v>2</v>
@@ -70548,7 +70548,7 @@
         <v>2</v>
       </c>
       <c r="R434">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S434">
         <v>3</v>
@@ -70560,10 +70560,10 @@
         <v>1</v>
       </c>
       <c r="V434">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W434">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X434">
         <v>3</v>
@@ -70626,7 +70626,7 @@
         <v>3</v>
       </c>
       <c r="AR434">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AS434">
         <v>9</v>
@@ -70647,7 +70647,7 @@
         <v>15</v>
       </c>
       <c r="AY434">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="435" spans="1:51">
@@ -70691,7 +70691,7 @@
         <v>3</v>
       </c>
       <c r="N435">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O435">
         <v>3</v>
@@ -70700,7 +70700,7 @@
         <v>3</v>
       </c>
       <c r="Q435">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R435">
         <v>2</v>
@@ -70712,13 +70712,13 @@
         <v>1</v>
       </c>
       <c r="U435">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V435">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W435">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X435">
         <v>3</v>
@@ -70784,7 +70784,7 @@
         <v>11</v>
       </c>
       <c r="AS435">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AT435">
         <v>9</v>
@@ -70802,7 +70802,7 @@
         <v>15</v>
       </c>
       <c r="AY435">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="436" spans="1:51">
@@ -71025,7 +71025,7 @@
         <v>3</v>
       </c>
       <c r="V437">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W437">
         <v>2</v>
@@ -71189,7 +71189,7 @@
         <v>3</v>
       </c>
       <c r="Y438">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z438">
         <v>3</v>
@@ -71255,7 +71255,7 @@
         <v>12</v>
       </c>
       <c r="AU438">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AV438">
         <v>14</v>
@@ -71267,7 +71267,7 @@
         <v>12</v>
       </c>
       <c r="AY438">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="439" spans="1:51">
@@ -71335,7 +71335,7 @@
         <v>3</v>
       </c>
       <c r="V439">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W439">
         <v>2</v>
@@ -71347,7 +71347,7 @@
         <v>3</v>
       </c>
       <c r="Z439">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA439">
         <v>3</v>
@@ -71410,7 +71410,7 @@
         <v>10</v>
       </c>
       <c r="AU439">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AV439">
         <v>12</v>
@@ -71422,7 +71422,7 @@
         <v>12</v>
       </c>
       <c r="AY439">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="440" spans="1:51">
@@ -71490,7 +71490,7 @@
         <v>3</v>
       </c>
       <c r="V440">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W440">
         <v>2</v>
@@ -71529,7 +71529,7 @@
         <v>3</v>
       </c>
       <c r="AI440">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ440">
         <v>3</v>
@@ -71571,13 +71571,13 @@
         <v>14</v>
       </c>
       <c r="AW440">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AX440">
         <v>13</v>
       </c>
       <c r="AY440">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="441" spans="1:51">
@@ -71955,7 +71955,7 @@
         <v>3</v>
       </c>
       <c r="V443">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W443">
         <v>2</v>
@@ -72265,7 +72265,7 @@
         <v>3</v>
       </c>
       <c r="V445">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W445">
         <v>1</v>
@@ -72304,10 +72304,10 @@
         <v>3</v>
       </c>
       <c r="AI445">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ445">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK445">
         <v>3</v>
@@ -72346,13 +72346,13 @@
         <v>13</v>
       </c>
       <c r="AW445">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AX445">
         <v>14</v>
       </c>
       <c r="AY445">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="446" spans="1:51">
@@ -72420,7 +72420,7 @@
         <v>3</v>
       </c>
       <c r="V446">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W446">
         <v>1</v>
@@ -72575,7 +72575,7 @@
         <v>3</v>
       </c>
       <c r="V447">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W447">
         <v>2</v>
@@ -72697,7 +72697,7 @@
         <v>2</v>
       </c>
       <c r="K448">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L448">
         <v>2</v>
@@ -72796,7 +72796,7 @@
         <v>1</v>
       </c>
       <c r="AR448">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AS448">
         <v>8</v>
@@ -72817,7 +72817,7 @@
         <v>10</v>
       </c>
       <c r="AY448">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="449" spans="1:51">
@@ -72885,7 +72885,7 @@
         <v>3</v>
       </c>
       <c r="V449">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W449">
         <v>3</v>
@@ -73040,7 +73040,7 @@
         <v>3</v>
       </c>
       <c r="V450">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W450">
         <v>3</v>
@@ -73350,7 +73350,7 @@
         <v>1</v>
       </c>
       <c r="V452">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W452">
         <v>3</v>
@@ -73660,7 +73660,7 @@
         <v>2</v>
       </c>
       <c r="V454">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W454">
         <v>3</v>
@@ -73970,7 +73970,7 @@
         <v>2</v>
       </c>
       <c r="V456">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W456">
         <v>3</v>
@@ -74280,7 +74280,7 @@
         <v>1</v>
       </c>
       <c r="V458">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W458">
         <v>3</v>
@@ -74590,7 +74590,7 @@
         <v>2</v>
       </c>
       <c r="V460">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W460">
         <v>2</v>
@@ -74900,7 +74900,7 @@
         <v>3</v>
       </c>
       <c r="V462">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W462">
         <v>3</v>
@@ -75037,7 +75037,7 @@
         <v>2</v>
       </c>
       <c r="P463">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q463">
         <v>3</v>
@@ -75055,7 +75055,7 @@
         <v>3</v>
       </c>
       <c r="V463">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W463">
         <v>3</v>
@@ -75079,7 +75079,7 @@
         <v>2</v>
       </c>
       <c r="AD463">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE463">
         <v>2</v>
@@ -75124,7 +75124,7 @@
         <v>12</v>
       </c>
       <c r="AS463">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AT463">
         <v>13</v>
@@ -75133,7 +75133,7 @@
         <v>10</v>
       </c>
       <c r="AV463">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AW463">
         <v>11</v>
@@ -75142,7 +75142,7 @@
         <v>12</v>
       </c>
       <c r="AY463">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="464" spans="1:51">
@@ -75210,7 +75210,7 @@
         <v>3</v>
       </c>
       <c r="V464">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W464">
         <v>3</v>
@@ -75228,7 +75228,7 @@
         <v>3</v>
       </c>
       <c r="AB464">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC464">
         <v>2</v>
@@ -75285,7 +75285,7 @@
         <v>14</v>
       </c>
       <c r="AU464">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AV464">
         <v>13</v>
@@ -75297,7 +75297,7 @@
         <v>12</v>
       </c>
       <c r="AY464">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="465" spans="1:51">
@@ -75365,7 +75365,7 @@
         <v>2</v>
       </c>
       <c r="V465">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W465">
         <v>3</v>
@@ -75520,7 +75520,7 @@
         <v>3</v>
       </c>
       <c r="V466">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W466">
         <v>3</v>
@@ -75675,7 +75675,7 @@
         <v>2</v>
       </c>
       <c r="V467">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W467">
         <v>3</v>
@@ -75830,7 +75830,7 @@
         <v>3</v>
       </c>
       <c r="V468">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W468">
         <v>3</v>
@@ -75985,7 +75985,7 @@
         <v>3</v>
       </c>
       <c r="V469">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W469">
         <v>2</v>
@@ -76140,7 +76140,7 @@
         <v>3</v>
       </c>
       <c r="V470">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W470">
         <v>2</v>
@@ -76295,7 +76295,7 @@
         <v>3</v>
       </c>
       <c r="V471">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W471">
         <v>3</v>
@@ -76450,7 +76450,7 @@
         <v>2</v>
       </c>
       <c r="V472">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W472">
         <v>3</v>
@@ -76605,7 +76605,7 @@
         <v>2</v>
       </c>
       <c r="V473">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W473">
         <v>3</v>
@@ -76760,7 +76760,7 @@
         <v>2</v>
       </c>
       <c r="V474">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W474">
         <v>3</v>
@@ -76915,7 +76915,7 @@
         <v>2</v>
       </c>
       <c r="V475">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W475">
         <v>3</v>
@@ -77690,7 +77690,7 @@
         <v>2</v>
       </c>
       <c r="V480">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W480">
         <v>3</v>
@@ -78000,7 +78000,7 @@
         <v>2</v>
       </c>
       <c r="V482">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W482">
         <v>3</v>
@@ -78155,7 +78155,7 @@
         <v>2</v>
       </c>
       <c r="V483">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W483">
         <v>2</v>
@@ -78402,13 +78402,13 @@
     </row>
     <row r="485" spans="1:51">
       <c r="A485" s="1">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B485" t="s">
         <v>533</v>
       </c>
       <c r="C485" t="s">
-        <v>628</v>
+        <v>875</v>
       </c>
       <c r="D485" t="s">
         <v>998</v>
@@ -78417,34 +78417,34 @@
         <v>1000</v>
       </c>
       <c r="F485">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G485">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H485">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I485">
         <v>3</v>
       </c>
       <c r="J485">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K485">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L485">
         <v>2</v>
       </c>
       <c r="M485">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N485">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O485">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P485">
         <v>3</v>
@@ -78459,19 +78459,19 @@
         <v>3</v>
       </c>
       <c r="T485">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U485">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V485">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W485">
         <v>3</v>
       </c>
       <c r="X485">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y485">
         <v>2</v>
@@ -78483,7 +78483,7 @@
         <v>3</v>
       </c>
       <c r="AB485">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC485">
         <v>3</v>
@@ -78492,13 +78492,13 @@
         <v>2</v>
       </c>
       <c r="AE485">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF485">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AG485">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH485">
         <v>3</v>
@@ -78525,22 +78525,22 @@
         <v>3</v>
       </c>
       <c r="AP485">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AQ485">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR485">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AS485">
         <v>9</v>
       </c>
       <c r="AT485">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AU485">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AV485">
         <v>15</v>
@@ -78552,7 +78552,7 @@
         <v>14</v>
       </c>
       <c r="AY485">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="486" spans="1:51">
@@ -78930,7 +78930,7 @@
         <v>2</v>
       </c>
       <c r="V488">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W488">
         <v>3</v>
@@ -79395,7 +79395,7 @@
         <v>3</v>
       </c>
       <c r="V491">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W491">
         <v>2</v>
@@ -79550,7 +79550,7 @@
         <v>2</v>
       </c>
       <c r="V492">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W492">
         <v>3</v>
@@ -79705,7 +79705,7 @@
         <v>3</v>
       </c>
       <c r="V493">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W493">
         <v>3</v>
@@ -79860,7 +79860,7 @@
         <v>3</v>
       </c>
       <c r="V494">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W494">
         <v>3</v>
@@ -80170,7 +80170,7 @@
         <v>2</v>
       </c>
       <c r="V496">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W496">
         <v>3</v>
@@ -80325,7 +80325,7 @@
         <v>3</v>
       </c>
       <c r="V497">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W497">
         <v>2</v>
@@ -80635,7 +80635,7 @@
         <v>3</v>
       </c>
       <c r="V499">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W499">
         <v>2</v>
@@ -81100,7 +81100,7 @@
         <v>3</v>
       </c>
       <c r="V502">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W502">
         <v>2</v>
@@ -81410,7 +81410,7 @@
         <v>2</v>
       </c>
       <c r="V504">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W504">
         <v>1</v>
@@ -81565,7 +81565,7 @@
         <v>2</v>
       </c>
       <c r="V505">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W505">
         <v>2</v>
@@ -81875,7 +81875,7 @@
         <v>2</v>
       </c>
       <c r="V507">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W507">
         <v>2</v>
@@ -82030,7 +82030,7 @@
         <v>2</v>
       </c>
       <c r="V508">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W508">
         <v>2</v>
@@ -82185,7 +82185,7 @@
         <v>3</v>
       </c>
       <c r="V509">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W509">
         <v>3</v>
@@ -82340,7 +82340,7 @@
         <v>3</v>
       </c>
       <c r="V510">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W510">
         <v>2</v>
